--- a/TreatyData '45-'49 v1.xlsx
+++ b/TreatyData '45-'49 v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19040" windowHeight="14240" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19040" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CountryTreaties" sheetId="11" r:id="rId1"/>
@@ -14894,8 +14894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="E356" sqref="E356"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20152,8 +20152,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D375">
-    <sortState ref="A2:D976">
-      <sortCondition ref="A1:A976"/>
+    <sortState ref="A2:D375">
+      <sortCondition ref="A1:A375"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24305,7 +24305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:A31"/>
     </sheetView>
   </sheetViews>
@@ -24661,8 +24661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="D356" sqref="D356"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A361" sqref="A361:XFD361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27840,7 +27840,7 @@
         <v>663</v>
       </c>
       <c r="B289">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -27851,7 +27851,7 @@
         <v>663</v>
       </c>
       <c r="B290">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>663</v>
       </c>
       <c r="B291">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>663</v>
       </c>
       <c r="B292">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -27881,10 +27881,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B293">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -27895,21 +27895,21 @@
         <v>666</v>
       </c>
       <c r="B294">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B295">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -27917,7 +27917,7 @@
         <v>670</v>
       </c>
       <c r="B296">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -27928,7 +27928,7 @@
         <v>670</v>
       </c>
       <c r="B297">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -27939,7 +27939,7 @@
         <v>670</v>
       </c>
       <c r="B298">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>670</v>
       </c>
       <c r="B299">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -27958,10 +27958,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B300">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -27972,7 +27972,7 @@
         <v>678</v>
       </c>
       <c r="B301">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>678</v>
       </c>
       <c r="B302">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>678</v>
       </c>
       <c r="B303">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -28005,7 +28005,7 @@
         <v>678</v>
       </c>
       <c r="B304">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -28013,10 +28013,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="B305">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -28027,7 +28027,7 @@
         <v>698</v>
       </c>
       <c r="B306">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -28038,7 +28038,7 @@
         <v>698</v>
       </c>
       <c r="B307">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -28049,7 +28049,7 @@
         <v>698</v>
       </c>
       <c r="B308">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -28060,7 +28060,7 @@
         <v>698</v>
       </c>
       <c r="B309">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -28068,10 +28068,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B310">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>700</v>
       </c>
       <c r="B311">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>700</v>
       </c>
       <c r="B312">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>700</v>
       </c>
       <c r="B313">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -28115,7 +28115,7 @@
         <v>700</v>
       </c>
       <c r="B314">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -28123,10 +28123,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B315">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -28137,7 +28137,7 @@
         <v>710</v>
       </c>
       <c r="B316">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -28148,7 +28148,7 @@
         <v>710</v>
       </c>
       <c r="B317">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -28159,7 +28159,7 @@
         <v>710</v>
       </c>
       <c r="B318">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -28170,7 +28170,7 @@
         <v>710</v>
       </c>
       <c r="B319">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -28178,10 +28178,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B320">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -28192,7 +28192,7 @@
         <v>712</v>
       </c>
       <c r="B321">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -28203,7 +28203,7 @@
         <v>712</v>
       </c>
       <c r="B322">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>712</v>
       </c>
       <c r="B323">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -28225,7 +28225,7 @@
         <v>712</v>
       </c>
       <c r="B324">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -28233,7 +28233,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B325">
         <v>1949</v>
@@ -28793,7 +28793,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C375"/>
+  <autoFilter ref="A1:C375">
+    <sortState ref="A2:C375">
+      <sortCondition ref="A1:A375"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
